--- a/Data/EC/NIT-9007496031.xlsx
+++ b/Data/EC/NIT-9007496031.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDCD41C8-8866-4B77-896B-E0D204DAB309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E389C668-9622-4DC5-89D0-7046CD5ABCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9169D6CB-529C-422E-BCE0-3FD80A770D6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4E267F6-8A9D-4944-901A-5BF5580503CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,184 +65,184 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73547491</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS KUHLMANH SIMANCA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1143353923</t>
+  </si>
+  <si>
+    <t>YEFERSON PEREZ ROCHA</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1007028828</t>
+  </si>
+  <si>
+    <t>MAYRA ALEJANDRA JULIO THERAN</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>20110907</t>
+  </si>
+  <si>
+    <t>ESTEFANIA MIRANDA PESTANA</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1143372302</t>
+  </si>
+  <si>
+    <t>GARY ALEXANDER CARRASQUILLA ESTREMOR</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1143364188</t>
+  </si>
+  <si>
+    <t>YERSSON GONZALEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>1143333699</t>
   </si>
   <si>
     <t>RICARDO JOSE VALENCIA OROZCO</t>
   </si>
   <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2107</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1143353923</t>
-  </si>
-  <si>
-    <t>YEFERSON PEREZ ROCHA</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1143364188</t>
-  </si>
-  <si>
-    <t>YERSSON GONZALEZ LOPEZ</t>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1001970483</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES BALLESTA PORTO</t>
+  </si>
+  <si>
+    <t>2309</t>
   </si>
   <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>73547491</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS KUHLMANH SIMANCA</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1007028828</t>
-  </si>
-  <si>
-    <t>MAYRA ALEJANDRA JULIO THERAN</t>
-  </si>
-  <si>
-    <t>1143372302</t>
-  </si>
-  <si>
-    <t>GARY ALEXANDER CARRASQUILLA ESTREMOR</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>20110907</t>
-  </si>
-  <si>
-    <t>ESTEFANIA MIRANDA PESTANA</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1001970483</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES BALLESTA PORTO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -341,7 +341,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -354,9 +356,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -556,23 +556,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,10 +600,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B64F313-F762-6C45-D012-535B61B931AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579FB6FC-FBEC-2B62-807E-CB10C1E8E277}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA5CFBD-D48A-447D-96BF-CACF2FFE2957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A344E1-EC7F-4ADC-9A29-E8AE43D8B7EE}">
   <dimension ref="B2:J74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1185,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>7200</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>720000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1199,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>6894</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>689454</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1222,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>5867</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1245,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>13789</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>689454</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1265,22 +1265,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>16000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>800000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1288,22 +1288,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>24000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>800000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1314,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>13789</v>
+        <v>7031</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1337,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F23" s="18">
-        <v>6894</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1360,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F24" s="18">
-        <v>12874</v>
+        <v>35112</v>
       </c>
       <c r="G24" s="18">
         <v>877803</v>
@@ -1383,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1406,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1429,19 +1429,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F27" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1452,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1475,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F29" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1498,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1521,19 +1521,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1544,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1567,19 +1567,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1590,13 +1590,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1613,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F35" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1636,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1659,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F37" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1682,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1705,13 +1705,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1728,13 +1728,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1751,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1774,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1797,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1820,13 +1820,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1843,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1866,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1889,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1912,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F48" s="18">
         <v>35112</v>
@@ -1935,13 +1935,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1958,13 +1958,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1981,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2004,13 +2004,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -2027,13 +2027,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2050,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -2073,13 +2073,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2096,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2119,13 +2119,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2142,13 +2142,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2165,13 +2165,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2188,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2211,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F61" s="18">
-        <v>7200</v>
+        <v>35112</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2234,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F62" s="18">
-        <v>5867</v>
+        <v>35112</v>
       </c>
       <c r="G62" s="18">
-        <v>900000</v>
+        <v>877803</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2257,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F63" s="18">
-        <v>7031</v>
+        <v>35112</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2277,22 +2277,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F64" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="18">
-        <v>800000</v>
+        <v>1160000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2300,22 +2300,22 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F65" s="18">
-        <v>16000</v>
+        <v>35112</v>
       </c>
       <c r="G65" s="18">
-        <v>800000</v>
+        <v>877803</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2326,16 +2326,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F66" s="18">
-        <v>17013</v>
+        <v>46400</v>
       </c>
       <c r="G66" s="18">
         <v>1160000</v>
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D67" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F67" s="18">
-        <v>46400</v>
+        <v>12874</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2372,16 +2372,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D68" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F68" s="24">
-        <v>46400</v>
+        <v>17013</v>
       </c>
       <c r="G68" s="24">
         <v>1160000</v>

--- a/Data/EC/NIT-9007496031.xlsx
+++ b/Data/EC/NIT-9007496031.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E389C668-9622-4DC5-89D0-7046CD5ABCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9277C7-A674-4CE9-B641-DAF9DB1A7428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4E267F6-8A9D-4944-901A-5BF5580503CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28873857-BF7B-4A45-80FD-350F09C16122}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -341,9 +341,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -356,7 +354,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -550,29 +550,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,19 +591,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +662,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579FB6FC-FBEC-2B62-807E-CB10C1E8E277}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C059881-1CBE-C2A2-F74F-A7EE90D80D6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A344E1-EC7F-4ADC-9A29-E8AE43D8B7EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75C64C2-501D-42DC-8BCD-ACFBF85AE8FA}">
   <dimension ref="B2:J74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1030,49 +1036,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1080,7 +1086,7 @@
         <v>70</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9007496031</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1685546</v>
       </c>
@@ -1181,18 +1187,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>7200</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>720000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1204,18 +1210,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>6894</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>689454</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1227,18 +1233,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>5867</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>900000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1250,18 +1256,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>13789</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>689454</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1273,18 +1279,18 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>16000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>800000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1296,18 +1302,18 @@
       <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>24000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>800000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1319,18 +1325,18 @@
       <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>7031</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>781242</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1342,18 +1348,18 @@
       <c r="D23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G23" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G23" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1365,18 +1371,18 @@
       <c r="D24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G24" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G24" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1388,18 +1394,18 @@
       <c r="D25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G25" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G25" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1411,18 +1417,18 @@
       <c r="D26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G26" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G26" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1434,18 +1440,18 @@
       <c r="D27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>36341</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>908526</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1457,18 +1463,18 @@
       <c r="D28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G28" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G28" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1480,18 +1486,18 @@
       <c r="D29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>36341</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>908526</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1503,18 +1509,18 @@
       <c r="D30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G30" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G30" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1526,18 +1532,18 @@
       <c r="D31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>36341</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>908526</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1549,18 +1555,18 @@
       <c r="D32" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G32" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G32" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1572,18 +1578,18 @@
       <c r="D33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>36341</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>908526</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1595,18 +1601,18 @@
       <c r="D34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G34" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1618,18 +1624,18 @@
       <c r="D35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>36341</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>908526</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1641,18 +1647,18 @@
       <c r="D36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G36" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G36" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1664,18 +1670,18 @@
       <c r="D37" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>36341</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>908526</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1687,18 +1693,18 @@
       <c r="D38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G38" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G38" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1710,18 +1716,18 @@
       <c r="D39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G39" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G39" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1733,18 +1739,18 @@
       <c r="D40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G40" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G40" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1756,18 +1762,18 @@
       <c r="D41" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G41" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G41" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1779,18 +1785,18 @@
       <c r="D42" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G42" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G42" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1802,18 +1808,18 @@
       <c r="D43" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G43" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G43" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1825,18 +1831,18 @@
       <c r="D44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G44" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G44" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1848,18 +1854,18 @@
       <c r="D45" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G45" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G45" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1871,18 +1877,18 @@
       <c r="D46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G46" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G46" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1894,18 +1900,18 @@
       <c r="D47" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G47" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G47" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1917,18 +1923,18 @@
       <c r="D48" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G48" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G48" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1940,18 +1946,18 @@
       <c r="D49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G49" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G49" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1963,18 +1969,18 @@
       <c r="D50" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G50" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G50" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1986,18 +1992,18 @@
       <c r="D51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G51" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G51" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2009,18 +2015,18 @@
       <c r="D52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G52" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G52" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2032,18 +2038,18 @@
       <c r="D53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G53" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G53" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2055,18 +2061,18 @@
       <c r="D54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G54" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G54" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2078,18 +2084,18 @@
       <c r="D55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G55" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G55" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2101,18 +2107,18 @@
       <c r="D56" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G56" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G56" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2124,18 +2130,18 @@
       <c r="D57" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G57" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G57" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2147,18 +2153,18 @@
       <c r="D58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G58" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G58" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2170,18 +2176,18 @@
       <c r="D59" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G59" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G59" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2193,18 +2199,18 @@
       <c r="D60" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G60" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G60" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2216,18 +2222,18 @@
       <c r="D61" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G61" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G61" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2239,18 +2245,18 @@
       <c r="D62" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G62" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G62" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2262,18 +2268,18 @@
       <c r="D63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F63" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G63" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G63" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2285,18 +2291,18 @@
       <c r="D64" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>46400</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>1160000</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2308,18 +2314,18 @@
       <c r="D65" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G65" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G65" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2331,18 +2337,18 @@
       <c r="D66" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>46400</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>1160000</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2354,47 +2360,47 @@
       <c r="D67" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>12874</v>
       </c>
-      <c r="G67" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="G67" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="22" t="s">
+      <c r="B68" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F68" s="24">
+      <c r="F68" s="26">
         <v>17013</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G68" s="26">
         <v>1160000</v>
       </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="28"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="32"/>
+      <c r="C73" s="34"/>
       <c r="H73" s="1" t="s">
         <v>78</v>
       </c>
@@ -2402,10 +2408,10 @@
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="32"/>
+      <c r="C74" s="34"/>
       <c r="H74" s="1" t="s">
         <v>79</v>
       </c>
